--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/Recherche/appendix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carme\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2DBBA8-FD2B-A140-8921-601E03AAA9F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B4551512-BD56-45EB-B9FF-A3795482A1F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Lasten-Pflichtenheft" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>ILV</t>
   </si>
@@ -97,6 +97,13 @@
   </si>
   <si>
     <t xml:space="preserve">Protokoll 2 angepasst                                                  zusätzliche Änderung                                                        Vorlage Einladung                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -aufschliessen zum Team
+- in Thematik einlesen</t>
+  </si>
+  <si>
+    <t>- eigene Recherchen zu "Integration in bestehende Systeme"</t>
   </si>
 </sst>
 </file>
@@ -427,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -499,6 +506,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,33 +894,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.33203125"/>
-    <col min="7" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.42578125"/>
+    <col min="2" max="2" width="13.42578125"/>
+    <col min="3" max="3" width="12.140625"/>
+    <col min="4" max="4" width="39.85546875"/>
+    <col min="5" max="5" width="10.28515625"/>
+    <col min="6" max="6" width="40.28515625"/>
+    <col min="7" max="256" width="9.42578125"/>
+    <col min="257" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" s="24" t="s">
         <v>2</v>
       </c>
@@ -920,7 +930,7 @@
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -934,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -951,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -968,7 +978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -985,7 +995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -994,14 +1004,22 @@
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="17">
+        <v>4</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="19">
+        <v>4</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1021,35 +1039,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="39.83203125"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="40.6640625"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.42578125"/>
+    <col min="2" max="2" width="13.42578125"/>
+    <col min="3" max="3" width="12.140625"/>
+    <col min="4" max="4" width="39.85546875"/>
+    <col min="5" max="5" width="10.28515625"/>
+    <col min="6" max="6" width="39.85546875"/>
+    <col min="7" max="7" width="9.42578125"/>
+    <col min="8" max="8" width="39.85546875"/>
+    <col min="9" max="9" width="9.42578125"/>
+    <col min="10" max="10" width="40.7109375"/>
+    <col min="11" max="256" width="9.42578125"/>
+    <col min="257" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
@@ -1067,7 +1085,7 @@
       </c>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1124,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1137,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1150,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1163,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carme\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\OneDrive\Dokumente\GitHub\Pro1E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B4551512-BD56-45EB-B9FF-A3795482A1F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="10_ncr:100000_{B4551512-BD56-45EB-B9FF-A3795482A1F9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{F1DDF552-07E5-4F0B-BE34-BB592A0A8EB1}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>ILV</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Christoph</t>
   </si>
   <si>
-    <t>Lasten- und Pflichtenhet</t>
-  </si>
-  <si>
     <t>Woche 1</t>
   </si>
   <si>
@@ -104,6 +101,16 @@
   </si>
   <si>
     <t>- eigene Recherchen zu "Integration in bestehende Systeme"</t>
+  </si>
+  <si>
+    <t>Recherche Abwassertank/Hebeanlage
+Grafik für Risikoanalyse</t>
+  </si>
+  <si>
+    <t>Struktur Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Lasten- und Pflichtenheft</t>
   </si>
 </sst>
 </file>
@@ -501,18 +508,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -596,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -898,39 +905,39 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125"/>
-    <col min="2" max="2" width="13.42578125"/>
-    <col min="3" max="3" width="12.140625"/>
-    <col min="4" max="4" width="39.85546875"/>
-    <col min="5" max="5" width="10.28515625"/>
-    <col min="6" max="6" width="40.28515625"/>
-    <col min="7" max="256" width="9.42578125"/>
-    <col min="257" max="1025" width="11.42578125"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.26953125"/>
+    <col min="6" max="6" width="40.26953125"/>
+    <col min="7" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="24" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -944,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -961,7 +968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -969,16 +976,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="14">
         <v>5</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -995,7 +1002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1004,7 +1011,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1012,13 +1019,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="19">
         <v>4</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>22</v>
+      <c r="F13" s="24" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1039,53 +1046,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125"/>
-    <col min="2" max="2" width="13.42578125"/>
-    <col min="3" max="3" width="12.140625"/>
-    <col min="4" max="4" width="39.85546875"/>
-    <col min="5" max="5" width="10.28515625"/>
-    <col min="6" max="6" width="39.85546875"/>
-    <col min="7" max="7" width="9.42578125"/>
-    <col min="8" max="8" width="39.85546875"/>
-    <col min="9" max="9" width="9.42578125"/>
-    <col min="10" max="10" width="40.7109375"/>
-    <col min="11" max="256" width="9.42578125"/>
-    <col min="257" max="1025" width="11.42578125"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.26953125"/>
+    <col min="6" max="6" width="39.81640625"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="40.7265625"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1133,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1146,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1150,20 +1159,28 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/Recherche/appendix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\OneDrive\Dokumente\GitHub\Pro1E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2DBBA8-FD2B-A140-8921-601E03AAA9F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{1E2DBBA8-FD2B-A140-8921-601E03AAA9F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{83C5CCBB-5D25-455E-AFF9-75D166E0F0DA}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,20 @@
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Lasten-Pflichtenheft" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>ILV</t>
   </si>
@@ -97,6 +105,15 @@
   </si>
   <si>
     <t xml:space="preserve">Protokoll 2 angepasst                                                  zusätzliche Änderung                                                        Vorlage Einladung                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Quellen
+ - Verbesserung Recherchearbeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recherchearbeit
+ - Zusammenfassung
+ - Discord Server</t>
   </si>
 </sst>
 </file>
@@ -502,7 +519,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -884,33 +901,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.33203125"/>
-    <col min="7" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="40.36328125"/>
+    <col min="7" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
         <v>2</v>
       </c>
@@ -920,7 +937,7 @@
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -934,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -951,7 +968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -968,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -985,16 +1002,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1023,33 +1048,33 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="39.83203125"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="40.6640625"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="39.81640625"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="40.6328125"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
@@ -1067,7 +1092,7 @@
       </c>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1131,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1144,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1157,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1170,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\OneDrive\Dokumente\GitHub\Pro1E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="10_ncr:100000_{B4551512-BD56-45EB-B9FF-A3795482A1F9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{F1DDF552-07E5-4F0B-BE34-BB592A0A8EB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C25635F-21E9-470C-A227-7F8DD8B0CF12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>ILV</t>
   </si>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>Lasten- und Pflichtenheft</t>
+  </si>
+  <si>
+    <t>- Recherche Turbokompressor/Netzeinspeisung (1h)
+-Projektstrukturplan(1h)
+-Struktur Pflichtenheft angepasst (1h)</t>
+  </si>
+  <si>
+    <t>Github</t>
   </si>
 </sst>
 </file>
@@ -901,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1046,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,7 +1065,7 @@
     <col min="3" max="3" width="12.1796875"/>
     <col min="4" max="4" width="39.81640625"/>
     <col min="5" max="5" width="10.26953125"/>
-    <col min="6" max="6" width="39.81640625"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
     <col min="7" max="7" width="9.453125"/>
     <col min="8" max="8" width="39.81640625"/>
     <col min="9" max="9" width="9.453125"/>
@@ -1120,14 +1128,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="22"/>
+      <c r="C9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
       <c r="I9" s="9"/>
@@ -1201,6 +1217,7 @@
     <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C25635F-21E9-470C-A227-7F8DD8B0CF12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52314E-600B-1544-8D8E-068F1DF83123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Lasten-Pflichtenheft" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>ILV</t>
   </si>
@@ -119,6 +119,16 @@
   </si>
   <si>
     <t>Github</t>
+  </si>
+  <si>
+    <t>Organigramm</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>Organigramm angepasst,Recherche Abrasion
+Grafik für Risikoanalyse/Risikotabelle</t>
   </si>
 </sst>
 </file>
@@ -913,29 +923,29 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.26953125"/>
-    <col min="6" max="6" width="40.26953125"/>
-    <col min="7" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="40.33203125"/>
+    <col min="7" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
@@ -945,7 +955,7 @@
       </c>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -959,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="96" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -976,7 +986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1019,7 +1029,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1054,37 +1064,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.26953125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="9" width="9.453125"/>
-    <col min="10" max="10" width="40.7265625"/>
-    <col min="11" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="40.6640625"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="25" t="s">
         <v>15</v>
       </c>
@@ -1102,7 +1112,7 @@
       </c>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1149,20 +1159,28 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1193,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1196,7 +1214,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52314E-600B-1544-8D8E-068F1DF83123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31C9031-75D8-E44E-9B43-BF96C047174F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>Protokolle1&amp;2 erstellt + geschrieben                  Recherche</t>
   </si>
   <si>
-    <t xml:space="preserve">Protokoll 2 angepasst                                                  zusätzliche Änderung                                                        Vorlage Einladung                                                                         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> -aufschliessen zum Team
 - in Thematik einlesen</t>
   </si>
@@ -124,11 +121,14 @@
     <t>Organigramm</t>
   </si>
   <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>Organigramm angepasst,Recherche Abrasion
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>Organigramm angepasst
 Grafik für Risikoanalyse/Risikotabelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protokoll 2 angepasst                                                  zusätzliche Änderung                                                        Vorlage Einladung , ,Recherche Abrasion                                                                        </t>
   </si>
 </sst>
 </file>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -997,10 +997,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="48" x14ac:dyDescent="0.2">
@@ -1037,13 +1037,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="19">
         <v>4</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -1146,13 +1146,13 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="9">
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
@@ -1167,13 +1167,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
@@ -1201,13 +1201,13 @@
         <v>1.5</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="14">
         <v>2</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31C9031-75D8-E44E-9B43-BF96C047174F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5ADC4DB-4B4E-415C-B911-F38F9C6E003F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>ILV</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t xml:space="preserve">Protokoll 2 angepasst                                                  zusätzliche Änderung                                                        Vorlage Einladung , ,Recherche Abrasion                                                                        </t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>Abrasion Turbine volles/leeres Rohr</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -455,11 +461,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -534,6 +601,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,33 +1001,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.33203125"/>
-    <col min="7" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="40.36328125"/>
+    <col min="7" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
@@ -955,7 +1037,7 @@
       </c>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -969,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1111,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1062,39 +1144,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="40.6640625"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="40.6328125"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C7" s="25" t="s">
         <v>15</v>
       </c>
@@ -1112,7 +1194,7 @@
       </c>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1241,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1262,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1193,7 +1275,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1214,18 +1296,35 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30">
+        <v>5</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\OneDrive\Dokumente\GitHub\Pro1E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5ADC4DB-4B4E-415C-B911-F38F9C6E003F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="10_ncr:100000_{E5ADC4DB-4B4E-415C-B911-F38F9C6E003F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{2B5AFECE-9EA8-4C66-80BC-7E8FFE9533B5}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>ILV</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>Abrasion Turbine volles/leeres Rohr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recherchearbeit
+ - Zusammenfassung
+ - Discord Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Quellen
+ - Verbesserung Recherchearbeit</t>
   </si>
 </sst>
 </file>
@@ -596,26 +605,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,14 +1037,14 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
@@ -1102,23 +1111,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="19">
         <v>4</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="19">
@@ -1146,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1177,22 +1194,22 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
@@ -1297,21 +1314,21 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30">
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28">
         <v>5</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\OneDrive\Dokumente\GitHub\Pro1E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="10_ncr:100000_{E5ADC4DB-4B4E-415C-B911-F38F9C6E003F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{2B5AFECE-9EA8-4C66-80BC-7E8FFE9533B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527B8DCA-5092-FB4A-A9B8-884CA4957BF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>ILV</t>
   </si>
@@ -144,6 +144,15 @@
   <si>
     <t xml:space="preserve"> - Quellen
  - Verbesserung Recherchearbeit</t>
+  </si>
+  <si>
+    <t>Sitzung Planen (9. November)</t>
+  </si>
+  <si>
+    <t>Projektvereinbarung 0.5h
+Inputenc Error wegbringen 0.5h
+Gegenlesen 0.5h
+Modell recherchieren 0.5h</t>
   </si>
 </sst>
 </file>
@@ -628,7 +637,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,7 +721,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1010,33 +1019,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="40.36328125"/>
-    <col min="7" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="40.33203125"/>
+    <col min="7" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" s="30" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1055,7 @@
       </c>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="96" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1163,37 +1172,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="9" width="9.453125"/>
-    <col min="10" max="10" width="40.6328125"/>
-    <col min="11" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="40.6640625"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
@@ -1211,7 +1220,7 @@
       </c>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1267,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1279,20 +1288,28 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1330,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>30</v>
       </c>
@@ -1330,7 +1347,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527B8DCA-5092-FB4A-A9B8-884CA4957BF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2561E49C-022C-4629-B00B-5FD1B1435A9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
-    <sheet name="Lasten-Pflichtenheft" sheetId="2" r:id="rId2"/>
+    <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
+    <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>ILV</t>
   </si>
@@ -87,9 +88,6 @@
     <t>Woche 2</t>
   </si>
   <si>
-    <t>Woche 4</t>
-  </si>
-  <si>
     <t>Protokolle1&amp;2 erstellt + geschrieben                  Recherche</t>
   </si>
   <si>
@@ -105,9 +103,6 @@
   </si>
   <si>
     <t>Struktur Pflichtenheft</t>
-  </si>
-  <si>
-    <t>Lasten- und Pflichtenheft</t>
   </si>
   <si>
     <t>- Recherche Turbokompressor/Netzeinspeisung (1h)
@@ -153,6 +148,21 @@
 Inputenc Error wegbringen 0.5h
 Gegenlesen 0.5h
 Modell recherchieren 0.5h</t>
+  </si>
+  <si>
+    <t>Pflichtenheft technischer Teil</t>
+  </si>
+  <si>
+    <t>Pflichtenheft organisatorischer Teil</t>
+  </si>
+  <si>
+    <t>letzte Woche</t>
+  </si>
+  <si>
+    <t>Vorwochenende</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -195,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -540,11 +550,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -635,9 +716,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -721,7 +844,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1017,45 +1140,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.33203125"/>
-    <col min="7" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="40.36328125"/>
+    <col min="7" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C7" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="30"/>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1086,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1094,16 +1217,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="14">
         <v>6</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1128,16 +1251,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="14">
         <v>3.5</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1145,13 +1268,22 @@
         <v>4</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="19">
         <v>4</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="45">
+        <f>C9+C10+C11+C12+C13+E9+E10+E11+E12+E13</f>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1170,39 +1302,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:J14"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="40.6640625"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="254" width="9.453125"/>
+    <col min="255" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
@@ -1211,16 +1342,12 @@
         <v>16</v>
       </c>
       <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1239,14 +1366,8 @@
       <c r="H8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1254,20 +1375,18 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="9">
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1275,20 +1394,18 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:10" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1296,20 +1413,18 @@
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="14">
         <v>2</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1317,22 +1432,20 @@
         <v>1.5</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="14">
         <v>2</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -1340,14 +1453,12 @@
         <v>5</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1357,15 +1468,12 @@
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1374,4 +1482,238 @@
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
+  <dimension ref="B3:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="39.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="39.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="39.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="39.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="39.26953125" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" customWidth="1"/>
+    <col min="14" max="14" width="39.26953125" customWidth="1"/>
+    <col min="15" max="15" width="13.26953125" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="34">
+        <v>43430</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="35">
+        <v>43431</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="35">
+        <v>43432</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="35">
+        <v>43433</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="35">
+        <v>43434</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="31"/>
+    </row>
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="43"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="43"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="44"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2561E49C-022C-4629-B00B-5FD1B1435A9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D55AA-A223-1F4E-8632-0D4B3789ACAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>ILV</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Woche 4</t>
+  </si>
+  <si>
+    <t>Woche 5</t>
+  </si>
+  <si>
+    <t>Projektstrukturplan Zeiten eingetragen &amp; addiert, wo möglich</t>
   </si>
 </sst>
 </file>
@@ -710,57 +719,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -844,7 +853,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1140,45 +1149,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="40.36328125"/>
-    <col min="7" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="30" t="s">
+    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="42"/>
+      <c r="G7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1191,8 +1213,20 @@
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1208,8 +1242,12 @@
       <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1263,12 @@
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1242,8 +1284,16 @@
       <c r="F11" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1259,8 +1309,12 @@
       <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1276,20 +1330,26 @@
       <c r="F13" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="19"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="39">
         <f>C9+C10+C11+C12+C13+E9+E10+E11+E12+E13</f>
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1304,50 +1364,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="254" width="9.453125"/>
-    <col min="255" max="1023" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="254" width="9.5"/>
+    <col min="255" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="30" t="s">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +1427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1386,7 +1446,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1465,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="2:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1484,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1443,7 +1503,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1458,7 +1518,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1492,61 +1552,61 @@
       <selection activeCell="P7" sqref="P7:P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="39.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="39.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" customWidth="1"/>
-    <col min="8" max="8" width="39.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="39.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="39.26953125" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" customWidth="1"/>
-    <col min="14" max="14" width="39.26953125" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" customWidth="1"/>
-    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="39.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="39.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="34" t="s">
+    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="34">
+      <c r="D5" s="40"/>
+      <c r="E5" s="45">
         <v>43430</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="35">
+      <c r="F5" s="40"/>
+      <c r="G5" s="44">
         <v>43431</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="35">
+      <c r="H5" s="43"/>
+      <c r="I5" s="44">
         <v>43432</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="35">
+      <c r="J5" s="43"/>
+      <c r="K5" s="44">
         <v>43433</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="35">
+      <c r="L5" s="43"/>
+      <c r="M5" s="44">
         <v>43434</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="35" t="s">
+      <c r="N5" s="43"/>
+      <c r="O5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="31"/>
-    </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P5" s="43"/>
+    </row>
+    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1590,12 +1650,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="36"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -1609,90 +1669,90 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="37"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="43"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="43"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="43"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="43"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="P8" s="37"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="37"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="43"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="43"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="43"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="43"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="43"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="37"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="43"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="43"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="43"/>
+      <c r="L10" s="37"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="43"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="43"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="P10" s="37"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="26"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="41"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="44"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="44"/>
+      <c r="J11" s="38"/>
       <c r="K11" s="28"/>
-      <c r="L11" s="44"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="28"/>
-      <c r="N11" s="44"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="44"/>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="39"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="19"/>
       <c r="H12" s="24"/>
       <c r="I12" s="19"/>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D55AA-A223-1F4E-8632-0D4B3789ACAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03298757-9255-9340-9C69-835401AF321B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carme\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03298757-9255-9340-9C69-835401AF321B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{080D0940-B320-4938-86F8-F7346A778D35}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22425" windowHeight="14625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>ILV</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Projektstrukturplan Zeiten eingetragen &amp; addiert, wo möglich</t>
+  </si>
+  <si>
+    <t>Projektstrukturplan</t>
+  </si>
+  <si>
+    <t>Projektbudget</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -1151,38 +1160,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.42578125"/>
+    <col min="2" max="2" width="13.42578125"/>
+    <col min="3" max="3" width="12.140625"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="256" width="9.42578125"/>
+    <col min="257" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1200,7 +1209,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1256,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1277,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1302,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1323,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1344,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1364,36 +1373,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="254" width="9.5"/>
-    <col min="255" max="1023" width="11.5"/>
+    <col min="1" max="1" width="9.42578125"/>
+    <col min="2" max="2" width="13.42578125"/>
+    <col min="3" max="3" width="12.140625"/>
+    <col min="4" max="4" width="39.85546875"/>
+    <col min="5" max="5" width="10.28515625"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125"/>
+    <col min="8" max="8" width="39.85546875"/>
+    <col min="9" max="254" width="9.42578125"/>
+    <col min="255" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1407,7 +1416,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1446,7 +1455,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1465,7 +1474,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1493,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1503,7 +1512,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1518,14 +1527,22 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="17">
+        <v>3</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
@@ -1552,31 +1569,31 @@
       <selection activeCell="P7" sqref="P7:P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="39.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="39.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="39.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="39.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1606,7 +1623,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1650,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1686,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1688,7 +1705,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1707,7 +1724,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1726,7 +1743,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1745,7 +1762,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carme\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{080D0940-B320-4938-86F8-F7346A778D35}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68BF8EB-555D-6B46-9AEB-E7F16829F44A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22425" windowHeight="14625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>ILV</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pflichtenheft Risikoanalyse Bildqualität verbessern
+Projektstrukturplantabellen -&gt; LateX
+Projektbudgettabelle vervollstaendigt
+</t>
   </si>
 </sst>
 </file>
@@ -1164,34 +1173,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125"/>
-    <col min="2" max="2" width="13.42578125"/>
-    <col min="3" max="3" width="12.140625"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
-    <col min="11" max="256" width="9.42578125"/>
-    <col min="257" max="1025" width="11.42578125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1218,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1265,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1286,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1311,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1323,7 +1332,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1344,7 +1353,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1373,36 +1382,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125"/>
-    <col min="2" max="2" width="13.42578125"/>
-    <col min="3" max="3" width="12.140625"/>
-    <col min="4" max="4" width="39.85546875"/>
-    <col min="5" max="5" width="10.28515625"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125"/>
-    <col min="8" max="8" width="39.85546875"/>
-    <col min="9" max="254" width="9.42578125"/>
-    <col min="255" max="1023" width="11.42578125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="254" width="9.5"/>
+    <col min="255" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1416,7 +1425,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1455,7 +1464,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1474,7 +1483,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1490,10 +1499,14 @@
       <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1512,7 +1525,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1527,7 +1540,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1569,31 +1582,31 @@
       <selection activeCell="P7" sqref="P7:P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="39.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="39.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="39.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="39.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1623,7 +1636,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1686,7 +1699,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +1718,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1724,7 +1737,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1743,7 +1756,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1762,7 +1775,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68BF8EB-555D-6B46-9AEB-E7F16829F44A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD50893-9999-7A4A-85C0-A093DAA240B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -183,13 +183,13 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>5h</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pflichtenheft Risikoanalyse Bildqualität verbessern
 Projektstrukturplantabellen -&gt; LateX
 Projektbudgettabelle vervollstaendigt
 </t>
+  </si>
+  <si>
+    <t>Risikoanalysetabelle erstellen</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -871,7 +871,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1383,7 +1383,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1480,8 +1480,12 @@
       <c r="F10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="14">
+        <v>2</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
@@ -1499,11 +1503,11 @@
       <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="14">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD50893-9999-7A4A-85C0-A093DAA240B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{77BB2426-A910-4F3C-8AD4-28F2E3A335A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>ILV</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Risikoanalysetabelle erstellen</t>
+  </si>
+  <si>
+    <t>-Grundstruktur (1h)
+- Kleinere Korrekturen(0.8h) + Batchdatei (0.2h)
+- KIS (1h)
+- Auswertung (1.5h)</t>
   </si>
 </sst>
 </file>
@@ -1173,34 +1179,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="38.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="38.6328125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="38.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="28.453125" customWidth="1"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1218,7 +1224,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1271,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1286,7 +1292,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1317,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1332,7 +1338,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1359,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1382,36 +1388,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="254" width="9.5"/>
-    <col min="255" max="1023" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="254" width="9.453125"/>
+    <col min="255" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1425,7 +1431,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +1470,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1529,7 +1535,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1544,7 +1550,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1582,35 +1588,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="39.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="39.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="40.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="39.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="8" width="39.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="39.36328125" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="39.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+    <col min="14" max="14" width="39.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="39.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1640,7 +1646,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1684,12 +1690,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -1703,7 +1713,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1722,7 +1732,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +1751,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1760,7 +1770,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1779,7 +1789,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{77BB2426-A910-4F3C-8AD4-28F2E3A335A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD226B7-4A12-7A47-869B-08509854B674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>ILV</t>
   </si>
@@ -196,6 +196,9 @@
 - Kleinere Korrekturen(0.8h) + Batchdatei (0.2h)
 - KIS (1h)
 - Auswertung (1.5h)</t>
+  </si>
+  <si>
+    <t>Mindmap(2h),  Grobkonzept(5.5)</t>
   </si>
 </sst>
 </file>
@@ -1179,34 +1182,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="38.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="38.6328125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="38.6328125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125"/>
-    <col min="10" max="10" width="28.453125" customWidth="1"/>
-    <col min="11" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1227,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1274,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1295,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1320,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1341,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1359,7 +1362,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1392,32 +1395,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="254" width="9.453125"/>
-    <col min="255" max="1023" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="254" width="9.5"/>
+    <col min="255" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1431,7 +1434,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1473,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1535,7 +1538,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1550,7 +1553,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1589,34 +1592,34 @@
   <dimension ref="B3:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="40.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="39.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="39.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="39.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="12" width="39.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" customWidth="1"/>
-    <col min="14" max="14" width="39.36328125" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
-    <col min="16" max="16" width="39.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="39.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="39.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1646,7 +1649,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="65" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1713,14 +1716,16 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="31"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="37"/>
       <c r="I8" s="14"/>
@@ -1732,7 +1737,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1751,7 +1756,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1770,7 +1775,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1789,7 +1794,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD226B7-4A12-7A47-869B-08509854B674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC3E5224-F3CB-498F-96DD-ECAEBDD471BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -192,13 +192,13 @@
     <t>Risikoanalysetabelle erstellen</t>
   </si>
   <si>
+    <t>Mindmap(2h),  Grobkonzept(5.5)</t>
+  </si>
+  <si>
     <t>-Grundstruktur (1h)
 - Kleinere Korrekturen(0.8h) + Batchdatei (0.2h)
 - KIS (1h)
-- Auswertung (1.5h)</t>
-  </si>
-  <si>
-    <t>Mindmap(2h),  Grobkonzept(5.5)</t>
+- Auswertung (4.5h)</t>
   </si>
 </sst>
 </file>
@@ -1182,34 +1182,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="38.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="38.6328125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="38.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="28.453125" customWidth="1"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1395,32 +1395,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="254" width="9.5"/>
-    <col min="255" max="1023" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="254" width="9.453125"/>
+    <col min="255" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1592,34 +1592,34 @@
   <dimension ref="B3:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="39.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="39.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="39.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="8" width="39.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="39.36328125" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="39.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+    <col min="14" max="14" width="39.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="39.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1693,18 +1693,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="65" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="73" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
       <c r="I7" s="9"/>
@@ -1716,15 +1716,17 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12">
+        <v>7.5</v>
+      </c>
       <c r="F8" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="37"/>
@@ -1737,7 +1739,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1758,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +1777,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1794,7 +1796,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC3E5224-F3CB-498F-96DD-ECAEBDD471BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D537A94A-164C-8F41-B6B2-A9571656CAF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>ILV</t>
   </si>
@@ -199,6 +199,13 @@
 - Kleinere Korrekturen(0.8h) + Batchdatei (0.2h)
 - KIS (1h)
 - Auswertung (4.5h)</t>
+  </si>
+  <si>
+    <t>KIS gegenlesen, verbessern 0.5h
+- Ueberblick.tex 5h
+- Modell.tex 1h
+- Modell.png 0.5h
+- Github diverses. 0.5h</t>
   </si>
 </sst>
 </file>
@@ -796,7 +803,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,7 +887,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1182,34 +1189,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="38.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="38.6328125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="38.6328125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125"/>
-    <col min="10" max="10" width="28.453125" customWidth="1"/>
-    <col min="11" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1227,7 +1234,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1281,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1302,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1327,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1341,7 +1348,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1369,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1395,32 +1402,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="254" width="9.453125"/>
-    <col min="255" max="1023" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="254" width="9.5"/>
+    <col min="255" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1434,7 +1441,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1473,7 +1480,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1545,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1553,7 +1560,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1592,34 +1599,34 @@
   <dimension ref="B3:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="39.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="39.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="39.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="12" width="39.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" customWidth="1"/>
-    <col min="14" max="14" width="39.36328125" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
-    <col min="16" max="16" width="39.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="39.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="39.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +1656,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1693,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="73" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="65" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +1723,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1739,14 +1746,18 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="80" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="37"/>
       <c r="I9" s="14"/>
@@ -1758,7 +1769,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1788,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1796,7 +1807,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D537A94A-164C-8F41-B6B2-A9571656CAF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{36DA93C4-D9DE-49D3-A27B-72E1AD4B30EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -195,17 +195,17 @@
     <t>Mindmap(2h),  Grobkonzept(5.5)</t>
   </si>
   <si>
-    <t>-Grundstruktur (1h)
-- Kleinere Korrekturen(0.8h) + Batchdatei (0.2h)
-- KIS (1h)
-- Auswertung (4.5h)</t>
-  </si>
-  <si>
     <t>KIS gegenlesen, verbessern 0.5h
 - Ueberblick.tex 5h
 - Modell.tex 1h
 - Modell.png 0.5h
 - Github diverses. 0.5h</t>
+  </si>
+  <si>
+    <t>-Grundstruktur (1h)
+- Kleinere Korrekturen(0.8h) + Batchdatei (0.2h)
+- KIS (1h)
+- Auswertung (6h)</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1189,34 +1189,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="38.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="38.6328125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="38.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="28.453125" customWidth="1"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1402,32 +1402,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="254" width="9.5"/>
-    <col min="255" max="1023" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="254" width="9.453125"/>
+    <col min="255" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1602,31 +1602,31 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="39.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="39.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="39.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="8" width="39.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="39.36328125" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="39.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+    <col min="14" max="14" width="39.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="39.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1700,17 +1700,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="65" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="73" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="7">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
@@ -1723,7 +1723,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>7.5</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="37"/>
@@ -1769,7 +1769,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{36DA93C4-D9DE-49D3-A27B-72E1AD4B30EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966E3584-3EE4-7E45-80A3-3703F0F1CE6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>ILV</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Risikoanalysetabelle erstellen</t>
   </si>
   <si>
-    <t>Mindmap(2h),  Grobkonzept(5.5)</t>
-  </si>
-  <si>
     <t>KIS gegenlesen, verbessern 0.5h
 - Ueberblick.tex 5h
 - Modell.tex 1h
@@ -206,6 +203,14 @@
 - Kleinere Korrekturen(0.8h) + Batchdatei (0.2h)
 - KIS (1h)
 - Auswertung (6h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Grobkonzept(5.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Grobkonzept(5.5)
+- Mindmap (2h)
+</t>
   </si>
 </sst>
 </file>
@@ -1189,34 +1194,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="38.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="38.6328125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="38.6328125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125"/>
-    <col min="10" max="10" width="28.453125" customWidth="1"/>
-    <col min="11" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1239,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1286,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1302,7 +1307,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1327,7 +1332,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1348,7 +1353,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1374,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1402,32 +1407,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="254" width="9.453125"/>
-    <col min="255" max="1023" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="254" width="9.5"/>
+    <col min="255" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1441,7 +1446,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1480,7 +1485,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1503,7 +1508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1545,7 +1550,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1560,7 +1565,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1596,37 +1601,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
-  <dimension ref="B3:P12"/>
+  <dimension ref="B3:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="39.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="39.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="39.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="12" width="39.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" customWidth="1"/>
-    <col min="14" max="14" width="39.36328125" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
-    <col min="16" max="16" width="39.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="39.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="39.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1656,7 +1661,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1700,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="73" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="65" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1710,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
@@ -1723,7 +1728,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" ht="80" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1733,7 +1738,7 @@
         <v>7.5</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="37"/>
@@ -1746,7 +1751,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="80" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1761,7 @@
         <v>7.5</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="37"/>
@@ -1769,7 +1774,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1788,7 +1793,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1807,7 +1812,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -1826,6 +1831,11 @@
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
     </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="M5:N5"/>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966E3584-3EE4-7E45-80A3-3703F0F1CE6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A582ED6D-4B0C-426F-A4E1-53CAB190859D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>ILV</t>
   </si>
@@ -211,6 +211,10 @@
     <t xml:space="preserve">  Grobkonzept(5.5)
 - Mindmap (2h)
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -KIS (2h)
+- Leistungsberechnung (7h)</t>
   </si>
 </sst>
 </file>
@@ -1194,34 +1198,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="38.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="38.6328125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="38.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="28.453125" customWidth="1"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1243,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1286,7 +1290,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1311,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1332,7 +1336,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1357,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1378,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1407,32 +1411,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="254" width="9.5"/>
-    <col min="255" max="1023" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="254" width="9.453125"/>
+    <col min="255" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1446,7 +1450,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1489,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1554,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1565,7 +1569,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1603,35 +1607,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="39.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="39.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="39.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="8" width="39.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="39.36328125" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="39.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+    <col min="14" max="14" width="39.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="39.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1665,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="65" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="73" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1732,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1751,7 +1755,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1774,7 +1778,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1793,14 +1797,18 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="26">
+        <v>9</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="G11" s="28"/>
       <c r="H11" s="38"/>
       <c r="I11" s="28"/>
@@ -1812,7 +1820,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -1831,7 +1839,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>49</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A582ED6D-4B0C-426F-A4E1-53CAB190859D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{38381647-7ECB-4725-962C-26AC5443C42F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>ILV</t>
   </si>
@@ -199,22 +199,18 @@
 - Github diverses. 0.5h</t>
   </si>
   <si>
+    <t xml:space="preserve">  Grobkonzept(5.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -KIS (2h)
+- Leistungsberechnung (7h)</t>
+  </si>
+  <si>
     <t>-Grundstruktur (1h)
 - Kleinere Korrekturen(0.8h) + Batchdatei (0.2h)
 - KIS (1h)
-- Auswertung (6h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Grobkonzept(5.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Grobkonzept(5.5)
-- Mindmap (2h)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -KIS (2h)
-- Leistungsberechnung (7h)</t>
+- Auswertung (6h)
+-Berchnungen (1h)</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1604,7 @@
   <dimension ref="B3:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1616,7 +1612,7 @@
     <col min="3" max="3" width="13.36328125" customWidth="1"/>
     <col min="4" max="4" width="40.453125" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="39.36328125" customWidth="1"/>
+    <col min="6" max="6" width="40.36328125" customWidth="1"/>
     <col min="7" max="7" width="13.36328125" customWidth="1"/>
     <col min="8" max="8" width="39.36328125" customWidth="1"/>
     <col min="9" max="9" width="13.36328125" customWidth="1"/>
@@ -1709,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="73" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1719,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
@@ -1732,7 +1728,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1741,9 +1737,7 @@
       <c r="E8" s="12">
         <v>7.5</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>50</v>
-      </c>
+      <c r="F8" s="34"/>
       <c r="G8" s="14"/>
       <c r="H8" s="37"/>
       <c r="I8" s="14"/>
@@ -1807,7 +1801,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="38"/>
@@ -1841,7 +1835,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{38381647-7ECB-4725-962C-26AC5443C42F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFE8814-53E7-C648-8564-7DB8D1A880A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1360" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>ILV</t>
   </si>
@@ -211,6 +218,16 @@
 - KIS (1h)
 - Auswertung (6h)
 -Berchnungen (1h)</t>
+  </si>
+  <si>
+    <t>- LateX Tabellenrecherche 0.5h
+- LateX Tabelle erstellt 0.5h
+- LateX fehler behoben 0.25h
+- Uebersicht Tabellen neu gemacht 2.5h
+- Modell.png erstellt mit GIMP 0.5h</t>
+  </si>
+  <si>
+    <t>4.25h</t>
   </si>
 </sst>
 </file>
@@ -808,7 +825,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -892,7 +909,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1194,34 +1211,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="38.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="38.6328125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="38.6328125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125"/>
-    <col min="10" max="10" width="28.453125" customWidth="1"/>
-    <col min="11" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1256,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1286,7 +1303,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1324,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1332,7 +1349,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1370,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1391,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1407,32 +1424,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="254" width="9.453125"/>
-    <col min="255" max="1023" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="254" width="9.5"/>
+    <col min="255" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1446,7 +1463,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1502,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1508,7 +1525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1567,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1565,7 +1582,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1604,34 +1621,34 @@
   <dimension ref="B3:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="40.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="39.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="39.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="12" width="39.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" customWidth="1"/>
-    <col min="14" max="14" width="39.36328125" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
-    <col min="16" max="16" width="39.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="39.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="39.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1678,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1745,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1749,7 +1766,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="80" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1761,8 +1778,12 @@
       <c r="F9" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="37"/>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="37"/>
       <c r="K9" s="14"/>
@@ -1772,7 +1793,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1791,7 +1812,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1814,7 +1835,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -1833,7 +1854,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>48</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,35 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFE8814-53E7-C648-8564-7DB8D1A880A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62ECD14-4BCC-6B4C-98C0-57E8BEFCAA10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1360" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>ILV</t>
   </si>
@@ -206,9 +199,6 @@
 - Github diverses. 0.5h</t>
   </si>
   <si>
-    <t xml:space="preserve">  Grobkonzept(5.5)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -KIS (2h)
 - Leistungsberechnung (7h)</t>
   </si>
@@ -228,6 +218,18 @@
   </si>
   <si>
     <t>4.25h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Mindmap (2,5)
+- Grobkonzept.tex (5h)
+</t>
+  </si>
+  <si>
+    <t>-Grobkonzept gegenlesen, verbessern (0.5)
+- Morphologischer Kasten(1.5h)
+- Mindmap zusammenfügen&amp; verbesseren( 1h)
+- Grobkonzept angepasst und Tabelle vereinheitlich. (3.5)
+- Fehlerbehebung ( 0.5h)</t>
   </si>
 </sst>
 </file>
@@ -825,7 +827,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -909,7 +911,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1618,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
-  <dimension ref="B3:P15"/>
+  <dimension ref="B3:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1732,7 +1734,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
@@ -1745,7 +1747,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="96" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1754,9 +1756,15 @@
       <c r="E8" s="12">
         <v>7.5</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="37"/>
+      <c r="F8" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="14">
+        <v>7</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>53</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="37"/>
       <c r="K8" s="14"/>
@@ -1779,10 +1787,10 @@
         <v>47</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="37"/>
@@ -1822,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="38"/>
@@ -1854,11 +1862,6 @@
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="M5:N5"/>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62ECD14-4BCC-6B4C-98C0-57E8BEFCAA10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{90812737-C700-4F00-A761-AFB940AB21D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>ILV</t>
   </si>
@@ -230,6 +230,11 @@
 - Mindmap zusammenfügen&amp; verbesseren( 1h)
 - Grobkonzept angepasst und Tabelle vereinheitlich. (3.5)
 - Fehlerbehebung ( 0.5h)</t>
+  </si>
+  <si>
+    <t>- Fehler Korrigiert(1h)
+- Berechnungen (2h)
+- Recherche kosten(1h)</t>
   </si>
 </sst>
 </file>
@@ -1213,34 +1218,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="38.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="38.6328125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="38.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="28.453125" customWidth="1"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1263,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1310,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +1331,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1351,7 +1356,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1372,7 +1377,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1398,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1426,32 +1431,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.33203125"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="254" width="9.5"/>
-    <col min="255" max="1023" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.36328125"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="254" width="9.453125"/>
+    <col min="255" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1465,7 +1470,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1509,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1569,7 +1574,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1584,7 +1589,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1622,35 +1627,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="39.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="39.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="40.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="8" width="39.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="39.36328125" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="39.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+    <col min="14" max="14" width="39.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="39.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +1685,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="81" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1736,8 +1741,12 @@
       <c r="F7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="9"/>
@@ -1747,7 +1756,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1774,7 +1783,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1801,7 +1810,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1829,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1843,7 +1852,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{90812737-C700-4F00-A761-AFB940AB21D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E00DF317-0659-41E5-8E1C-5CDE2EA5E66E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,8 +233,10 @@
   </si>
   <si>
     <t>- Fehler Korrigiert(1h)
-- Berechnungen (2h)
-- Recherche kosten(1h)</t>
+- Berechnungen (3h)
+- Recherche kosten(1h)
+- Recherche Phater Noster Prinzip(1h)
+- Auswertung (1h)</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1742,7 +1744,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>54</v>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E00DF317-0659-41E5-8E1C-5CDE2EA5E66E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A044172-C968-480B-9F9B-0F7FE523DA8D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22425" windowHeight="14625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>ILV</t>
   </si>
@@ -237,6 +245,23 @@
 - Recherche kosten(1h)
 - Recherche Phater Noster Prinzip(1h)
 - Auswertung (1h)</t>
+  </si>
+  <si>
+    <t>- Grobkonzept 2 &amp; 3 (inklusive komplettüberarbeitung nach Voice Sitzung) (5h)
+- Mindmap (1.5h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fehlerbehebung ( 0.5h)
+- Ausfüllen der Tabelle für Grobkonzept  + Fehlerbehebung(1h)
+- Grobkonzept angepasst und überarbeitet (2.5h)
+- Grobkonzept von Roni gegengelesen (0.5h)
+- Morphologischer Kasten (1.5h)
+- Handskizze für Grobkonzepte (1.5h)
+- Recherche Pather Noster (0.5h)
+</t>
+  </si>
+  <si>
+    <t>Anpassung Projektbudget (1h)</t>
   </si>
 </sst>
 </file>
@@ -1220,34 +1245,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="38.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="38.6328125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="38.6328125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125"/>
-    <col min="10" max="10" width="28.453125" customWidth="1"/>
-    <col min="11" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.42578125"/>
+    <col min="2" max="2" width="13.42578125"/>
+    <col min="3" max="3" width="12.140625"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125"/>
+    <col min="8" max="8" width="38.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="256" width="9.42578125"/>
+    <col min="257" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1290,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1291,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1337,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1358,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1383,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1404,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1425,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1433,32 +1458,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="254" width="9.453125"/>
-    <col min="255" max="1023" width="11.453125"/>
+    <col min="1" max="1" width="9.42578125"/>
+    <col min="2" max="2" width="13.42578125"/>
+    <col min="3" max="3" width="12.140625"/>
+    <col min="4" max="4" width="39.85546875"/>
+    <col min="5" max="5" width="10.42578125"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125"/>
+    <col min="8" max="8" width="39.85546875"/>
+    <col min="9" max="254" width="9.42578125"/>
+    <col min="255" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1472,7 +1497,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1511,7 +1536,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1534,7 +1559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1557,7 +1582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1576,7 +1601,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1616,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1629,35 +1654,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="40.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="39.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="39.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="12" width="39.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" customWidth="1"/>
-    <col min="14" max="14" width="39.36328125" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
-    <col min="16" max="16" width="39.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="39.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1687,7 +1712,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1758,7 +1783,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1785,7 +1810,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1812,16 +1837,26 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="165" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="37"/>
+      <c r="D10" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="14">
+        <v>8</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="37"/>
       <c r="K10" s="14"/>
@@ -1831,7 +1866,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1854,7 +1889,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A044172-C968-480B-9F9B-0F7FE523DA8D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC971A-BDF7-094D-8EDB-B4F481FDC3DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22425" windowHeight="14625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -218,16 +217,6 @@
 -Berchnungen (1h)</t>
   </si>
   <si>
-    <t>- LateX Tabellenrecherche 0.5h
-- LateX Tabelle erstellt 0.5h
-- LateX fehler behoben 0.25h
-- Uebersicht Tabellen neu gemacht 2.5h
-- Modell.png erstellt mit GIMP 0.5h</t>
-  </si>
-  <si>
-    <t>4.25h</t>
-  </si>
-  <si>
     <t xml:space="preserve">-Mindmap (2,5)
 - Grobkonzept.tex (5h)
 </t>
@@ -262,6 +251,19 @@
   </si>
   <si>
     <t>Anpassung Projektbudget (1h)</t>
+  </si>
+  <si>
+    <t>- LateX Tabellenrecherche 1h
+- LateX Tabelle erstellt 0.5h
+- LateX fehler behoben 0.25h
+- Uebersicht Tabellen neu gemacht 2.5h
+- Modell.png erstellt mit GIMP 0.5h
+-Grobkonzepttabelle verbessert (Design und Inhalt)2h
+- Modellgrafik Grobkonzept1 angefangen 1h
+- Recherche Tagesgang Trinkwasserverbrauch 1h</t>
+  </si>
+  <si>
+    <t>8.75h</t>
   </si>
 </sst>
 </file>
@@ -859,7 +861,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,7 +945,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1245,34 +1247,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125"/>
-    <col min="2" max="2" width="13.42578125"/>
-    <col min="3" max="3" width="12.140625"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125"/>
-    <col min="6" max="6" width="38.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125"/>
-    <col min="8" max="8" width="38.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
-    <col min="11" max="256" width="9.42578125"/>
-    <col min="257" max="1025" width="11.42578125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1292,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1339,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +1360,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1383,7 +1385,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1404,7 +1406,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1425,7 +1427,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1458,32 +1460,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125"/>
-    <col min="2" max="2" width="13.42578125"/>
-    <col min="3" max="3" width="12.140625"/>
-    <col min="4" max="4" width="39.85546875"/>
-    <col min="5" max="5" width="10.42578125"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125"/>
-    <col min="8" max="8" width="39.85546875"/>
-    <col min="9" max="254" width="9.42578125"/>
-    <col min="255" max="1023" width="11.42578125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.5"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="254" width="9.5"/>
+    <col min="255" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1497,7 +1499,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1538,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1582,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1603,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1616,7 +1618,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1654,35 +1656,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="39.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="39.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="39.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="39.5" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="39.5" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1712,7 +1714,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1756,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
@@ -1783,7 +1785,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="96" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1793,13 +1795,13 @@
         <v>7.5</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="14">
         <v>7</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="37"/>
@@ -1810,7 +1812,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="144" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1823,10 +1825,10 @@
         <v>47</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="37"/>
@@ -1837,25 +1839,25 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="144" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="12">
         <v>7.5</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" s="14">
         <v>8</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="37"/>
@@ -1866,7 +1868,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1889,7 +1891,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC971A-BDF7-094D-8EDB-B4F481FDC3DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99B8D0DA-ADD3-4E1C-9F19-F63C83180C95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,12 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>ILV</t>
   </si>
@@ -264,6 +257,10 @@
   </si>
   <si>
     <t>8.75h</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Rechere Minimalwasser Pelton (3h)
+- Leistungsberechnung (2h)</t>
   </si>
 </sst>
 </file>
@@ -861,7 +858,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -945,7 +942,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1243,38 +1240,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5"/>
-    <col min="6" max="6" width="38.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125"/>
+    <col min="6" max="6" width="38.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="38.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="28.453125" customWidth="1"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
@@ -1292,7 +1289,7 @@
       </c>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1339,7 +1336,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1357,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1382,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1403,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1424,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1460,32 +1457,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.5"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="254" width="9.5"/>
-    <col min="255" max="1023" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.453125"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="254" width="9.453125"/>
+    <col min="255" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
@@ -1499,7 +1496,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1535,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1561,7 +1558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1584,7 +1581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1600,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1618,7 +1615,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1656,35 +1653,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="39.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="39.5" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="39.5" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="39.5" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="39.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="39.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="39.453125" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="39.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="39.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -1714,7 +1711,7 @@
       </c>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1758,7 +1755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="81" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +1782,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1812,7 +1809,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="144" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="145" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1839,7 +1836,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" ht="144" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" ht="145" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1868,7 +1865,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1880,8 +1877,12 @@
       <c r="F11" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="28">
+        <v>5</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="I11" s="28"/>
       <c r="J11" s="38"/>
       <c r="K11" s="28"/>
@@ -1891,7 +1892,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99B8D0DA-ADD3-4E1C-9F19-F63C83180C95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2084A17-A5F3-4C11-8B66-929622A98828}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>ILV</t>
   </si>
@@ -261,6 +261,14 @@
   <si>
     <t xml:space="preserve"> -Rechere Minimalwasser Pelton (3h)
 - Leistungsberechnung (2h)</t>
+  </si>
+  <si>
+    <t>- Grafiken erstellt für Prinzipien Grobkonzepte (2h)
+- Berechnungen Grobkonzept 1 (4h)
+- Auswertung beschrieben (1h)</t>
+  </si>
+  <si>
+    <t>+ 1.5 Sitzung</t>
   </si>
 </sst>
 </file>
@@ -723,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -856,6 +864,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1651,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
-  <dimension ref="B3:P12"/>
+  <dimension ref="B3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1774,7 +1783,9 @@
         <v>52</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="10"/>
       <c r="M7" s="9"/>
@@ -1911,6 +1922,15 @@
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
     </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="H14" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="M5:N5"/>
@@ -1922,5 +1942,6 @@
     <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2084A17-A5F3-4C11-8B66-929622A98828}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4C8BDD07-142A-4668-BA72-C1BB7B24E3B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>ILV</t>
   </si>
@@ -269,6 +269,11 @@
   </si>
   <si>
     <t>+ 1.5 Sitzung</t>
+  </si>
+  <si>
+    <t>- Berechnung Grobkonzept 2 (3h)
+- Berechnung Grobkonzept 3 (4h)
+- Recherche Minimalwasser Pelton (2h)</t>
   </si>
 </sst>
 </file>
@@ -846,6 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,7 +870,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1281,22 +1286,22 @@
     </row>
     <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
@@ -1492,18 +1497,18 @@
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
@@ -1662,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1691,34 +1696,34 @@
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="45">
+      <c r="D5" s="41"/>
+      <c r="E5" s="46">
         <v>43430</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="44">
+      <c r="F5" s="41"/>
+      <c r="G5" s="45">
         <v>43431</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44">
+      <c r="H5" s="44"/>
+      <c r="I5" s="45">
         <v>43432</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44">
+      <c r="J5" s="44"/>
+      <c r="K5" s="45">
         <v>43433</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44">
+      <c r="L5" s="44"/>
+      <c r="M5" s="45">
         <v>43434</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44" t="s">
+      <c r="N5" s="44"/>
+      <c r="O5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="43"/>
+      <c r="P5" s="44"/>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
@@ -1876,7 +1881,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1894,8 +1899,12 @@
       <c r="H11" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="38"/>
+      <c r="I11" s="28">
+        <v>9</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="K11" s="28"/>
       <c r="L11" s="38"/>
       <c r="M11" s="28"/>
@@ -1923,11 +1932,11 @@
       <c r="P12" s="24"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46" t="s">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40" t="s">
         <v>60</v>
       </c>
     </row>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4C8BDD07-142A-4668-BA72-C1BB7B24E3B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FD461D-CDC9-F149-B18A-3139E1004DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>ILV</t>
   </si>
@@ -213,13 +213,6 @@
     <t xml:space="preserve">-Mindmap (2,5)
 - Grobkonzept.tex (5h)
 </t>
-  </si>
-  <si>
-    <t>-Grobkonzept gegenlesen, verbessern (0.5)
-- Morphologischer Kasten(1.5h)
-- Mindmap zusammenfügen&amp; verbesseren( 1h)
-- Grobkonzept angepasst und Tabelle vereinheitlich. (3.5)
-- Fehlerbehebung ( 0.5h)</t>
   </si>
   <si>
     <t>- Fehler Korrigiert(1h)
@@ -274,6 +267,20 @@
     <t>- Berechnung Grobkonzept 2 (3h)
 - Berechnung Grobkonzept 3 (4h)
 - Recherche Minimalwasser Pelton (2h)</t>
+  </si>
+  <si>
+    <t>-Grobkonzept gegenlesen, verbessern (1h)
+- Morphologischer Kasten(1.5h)
+- Mindmap zusammenfügen&amp; verbesseren( 1h)
+- Grobkonzept  und Tabelle vereinheitlich. (3.5)
+- Fehlerbehebung ( 1h)</t>
+  </si>
+  <si>
+    <t>-Nwa informiert &amp; grundgerüst erstellt(1.5h)
+- Tabelle bearbeitet(2h)
+- recherch Pelton ( 2h)
+-  Grobkonzept(2)
+- Risikoanalyse ( 1h)</t>
   </si>
 </sst>
 </file>
@@ -1258,34 +1265,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="38.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125"/>
-    <col min="6" max="6" width="38.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="38.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125"/>
-    <col min="10" max="10" width="28.453125" customWidth="1"/>
-    <col min="11" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="41" t="s">
         <v>2</v>
       </c>
@@ -1303,7 +1310,7 @@
       </c>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1357,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1378,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1403,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1417,7 +1424,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1445,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1471,32 +1478,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.453125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="254" width="9.453125"/>
-    <col min="255" max="1023" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.5"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="254" width="9.5"/>
+    <col min="255" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="41" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +1517,7 @@
       </c>
       <c r="H7" s="43"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1556,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1621,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1629,7 +1636,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1667,35 +1674,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="39.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="39.453125" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="39.453125" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="39.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
-    <col min="16" max="16" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="39.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="39.5" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="39.5" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C5" s="46" t="s">
         <v>37</v>
       </c>
@@ -1725,7 +1732,7 @@
       </c>
       <c r="P5" s="44"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +1776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1785,11 +1792,11 @@
         <v>7</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="10"/>
@@ -1798,7 +1805,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" ht="80" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1811,13 +1818,15 @@
         <v>50</v>
       </c>
       <c r="G8" s="14">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="37"/>
+      <c r="J8" s="34" t="s">
+        <v>62</v>
+      </c>
       <c r="K8" s="14"/>
       <c r="L8" s="37"/>
       <c r="M8" s="14"/>
@@ -1825,7 +1834,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="145" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="144" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1838,10 +1847,10 @@
         <v>47</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="37"/>
@@ -1852,25 +1861,25 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="144" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="12">
         <v>7.5</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="14">
         <v>8</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="37"/>
@@ -1881,7 +1890,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1897,13 +1906,13 @@
         <v>5</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="28">
         <v>9</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K11" s="28"/>
       <c r="L11" s="38"/>
@@ -1912,7 +1921,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -1931,13 +1940,13 @@
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H14" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FD461D-CDC9-F149-B18A-3139E1004DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC38691B-D7F8-D847-9FBA-1A730EE15297}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>ILV</t>
   </si>
@@ -281,6 +288,13 @@
 - recherch Pelton ( 2h)
 -  Grobkonzept(2)
 - Risikoanalyse ( 1h)</t>
+  </si>
+  <si>
+    <t>- Grafiken Grobkonzept 2&amp;3 erstellt 2.5h
+- prov Nutzwertanalyse Tabellen erstellt 2h
+- Projektplanung 0.5h
+- Ziele besser definiert 1.5h
+- Grobkonzept 4 angefangen LateX 0.5h</t>
   </si>
 </sst>
 </file>
@@ -879,7 +893,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -963,7 +977,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1674,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1852,8 +1866,12 @@
       <c r="H9" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="37"/>
+      <c r="I9" s="14">
+        <v>7</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="K9" s="14"/>
       <c r="L9" s="37"/>
       <c r="M9" s="14"/>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC38691B-D7F8-D847-9FBA-1A730EE15297}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41415A02-AE36-C446-9FBC-4EC4AAA7C04A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>ILV</t>
   </si>
@@ -295,6 +295,12 @@
 - Projektplanung 0.5h
 - Ziele besser definiert 1.5h
 - Grobkonzept 4 angefangen LateX 0.5h</t>
+  </si>
+  <si>
+    <t>- Projektplanung 0.5h
+- Recherche Preis fuer Abwasserrohrmontage 1h
+- Nutzwertanalyse  4h
+- An den Zielen herumgeschraubt 1.5h</t>
   </si>
 </sst>
 </file>
@@ -1688,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1872,8 +1878,12 @@
       <c r="J9" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="37"/>
+      <c r="K9" s="14">
+        <v>7</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="M9" s="14"/>
       <c r="N9" s="37"/>
       <c r="O9" s="14"/>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41415A02-AE36-C446-9FBC-4EC4AAA7C04A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4BC51428-FF71-4E20-B8C9-BEFC33A0C338}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,12 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>ILV</t>
   </si>
@@ -301,6 +294,14 @@
 - Recherche Preis fuer Abwasserrohrmontage 1h
 - Nutzwertanalyse  4h
 - An den Zielen herumgeschraubt 1.5h</t>
+  </si>
+  <si>
+    <t>- Leistungsberechnung (1h)
+- Recherche Generator&amp;Gleichrichter (3h)
+- Recherche Peltonturbine (3h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 2.5 Sitzung</t>
   </si>
 </sst>
 </file>
@@ -899,7 +900,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -983,7 +984,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1285,34 +1286,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5"/>
-    <col min="6" max="6" width="38.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125"/>
+    <col min="6" max="6" width="38.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="38.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="28.453125" customWidth="1"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="41" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +1331,7 @@
       </c>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1378,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1399,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1424,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1444,7 +1445,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1465,7 +1466,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1498,32 +1499,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.5"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="254" width="9.5"/>
-    <col min="255" max="1023" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.453125"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="254" width="9.453125"/>
+    <col min="255" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="41" t="s">
         <v>15</v>
       </c>
@@ -1537,7 +1538,7 @@
       </c>
       <c r="H7" s="43"/>
     </row>
-    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1577,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1641,7 +1642,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1656,7 +1657,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1694,35 +1695,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="39.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="39.5" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="39.5" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="39.5" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="39.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="39.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="39.453125" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="39.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="39.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="46" t="s">
         <v>37</v>
       </c>
@@ -1752,7 +1753,7 @@
       </c>
       <c r="P5" s="44"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="81" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1826,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1854,7 +1855,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="144" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="145" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1889,7 +1890,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" ht="144" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" ht="145" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1918,7 +1919,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1942,14 +1943,18 @@
       <c r="J11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="38"/>
+      <c r="K11" s="28">
+        <v>7</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="M11" s="28"/>
       <c r="N11" s="38"/>
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -1968,13 +1973,16 @@
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="H14" s="40" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40" t="s">
         <v>59</v>
+      </c>
+      <c r="L14" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4BC51428-FF71-4E20-B8C9-BEFC33A0C338}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B0E9FF65-160D-4BCE-8C2C-9AD522F59A4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>ILV</t>
   </si>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t xml:space="preserve"> + 2.5 Sitzung</t>
+  </si>
+  <si>
+    <t>- Konzept4 Grafiken angepasst (0.5h)
+- Berechnungen Grobkonzpet 2 und 3 (4h)
+- Auswertung fertig geschrieben (2h)</t>
+  </si>
+  <si>
+    <t>- Detailkonzept erstellt und beschrieben (0.5h)
+- Recherche Kettenförderer (1h)
+- Grafiken gesucht und angepasst (0.5h)
+- Detailkonzept Kettenförderer beschriebn (1h)
+- Kostenrecherche Kettenförderer (0.5h)</t>
   </si>
 </sst>
 </file>
@@ -1695,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1797,7 +1809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1815,14 +1827,22 @@
       <c r="H7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9">
+        <v>7</v>
+      </c>
       <c r="J7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
@@ -1844,7 +1864,9 @@
       <c r="H8" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14">
+        <v>8.5</v>
+      </c>
       <c r="J8" s="34" t="s">
         <v>62</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B0E9FF65-160D-4BCE-8C2C-9AD522F59A4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DF7BA0-8876-1B4A-9908-053AE75F8EF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>ILV</t>
   </si>
@@ -276,13 +276,6 @@
 - Fehlerbehebung ( 1h)</t>
   </si>
   <si>
-    <t>-Nwa informiert &amp; grundgerüst erstellt(1.5h)
-- Tabelle bearbeitet(2h)
-- recherch Pelton ( 2h)
--  Grobkonzept(2)
-- Risikoanalyse ( 1h)</t>
-  </si>
-  <si>
     <t>- Grafiken Grobkonzept 2&amp;3 erstellt 2.5h
 - prov Nutzwertanalyse Tabellen erstellt 2h
 - Projektplanung 0.5h
@@ -315,12 +308,33 @@
 - Detailkonzept Kettenförderer beschriebn (1h)
 - Kostenrecherche Kettenförderer (0.5h)</t>
   </si>
+  <si>
+    <t>-Nwa informiert &amp; grundgerüst erstellt(1.5h)
+- Tabelle bearbeitet(2h)
+- recherch minimalwasserPelton ( 2h)
+-  Grobkonzept(2)
+- Risikoanalyse ( 1h)</t>
+  </si>
+  <si>
+    <t>-recherche wechselrichter (2h)
+- Tabelle bearbeitet/kostenzusammenstellung (2h)
+- recherch Pelton/wasserrad (2)
+-  Grobkonzept 1/4 angepasst (1)
+- Risikoanalyse ( 1h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Recherche Wechselrichter/gleichrichter()
+-  Förderungsanlage/Wechselrichter beschrieben()
+- 
+-  
+- </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -776,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -909,6 +923,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,34 +1315,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="38.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125"/>
-    <col min="6" max="6" width="38.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="38.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125"/>
-    <col min="10" max="10" width="28.453125" customWidth="1"/>
-    <col min="11" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="24">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="19">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="16" thickBot="1"/>
+    <row r="7" spans="2:10" ht="16" thickTop="1">
       <c r="C7" s="41" t="s">
         <v>2</v>
       </c>
@@ -1343,7 +1360,7 @@
       </c>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16" thickBot="1">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1369,7 +1386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="97" thickTop="1">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1407,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="48">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1428,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="48">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1453,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="48">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1474,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="33" thickBot="1">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +1495,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1511,32 +1528,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.453125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="254" width="9.453125"/>
-    <col min="255" max="1023" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.5"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="254" width="9.5"/>
+    <col min="255" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="19">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="16" thickBot="1"/>
+    <row r="7" spans="2:8" ht="16" thickTop="1">
       <c r="C7" s="41" t="s">
         <v>15</v>
       </c>
@@ -1550,7 +1567,7 @@
       </c>
       <c r="H7" s="43"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="16" thickBot="1">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1570,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="49" thickTop="1">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1589,7 +1606,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="32">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="64">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1635,7 +1652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="32">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1654,7 +1671,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="16">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1669,7 +1686,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="17" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1707,35 +1724,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="39.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="39.453125" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="39.453125" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="39.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
-    <col min="16" max="16" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="39.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="39.5" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="39.5" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="19">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="16" thickBot="1"/>
+    <row r="5" spans="2:16" ht="16" thickTop="1">
       <c r="C5" s="46" t="s">
         <v>37</v>
       </c>
@@ -1765,7 +1782,7 @@
       </c>
       <c r="P5" s="44"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="16" thickBot="1">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1809,7 +1826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="81" thickTop="1">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1837,16 +1854,16 @@
         <v>6.5</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" ht="80">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1868,16 +1885,22 @@
         <v>8.5</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="37"/>
+        <v>68</v>
+      </c>
+      <c r="K8" s="14">
+        <v>8</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="M8" s="14"/>
-      <c r="N8" s="37"/>
+      <c r="N8" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="145" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="144">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1899,20 +1922,20 @@
         <v>7</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="14">
         <v>7</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="37"/>
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="144">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1941,7 +1964,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="48">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1969,14 +1992,14 @@
         <v>7</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" s="28"/>
       <c r="N11" s="38"/>
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="16" thickBot="1">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -1995,7 +2018,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16">
       <c r="H14" s="40" t="s">
         <v>59</v>
       </c>
@@ -2004,7 +2027,7 @@
         <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DF7BA0-8876-1B4A-9908-053AE75F8EF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0DB4CCB7-0479-4E8D-ACCC-9518171761F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>ILV</t>
   </si>
@@ -329,12 +329,15 @@
 -  
 - </t>
   </si>
+  <si>
+    <t>-Rechere Generator, Getriebe, Gleichrichter, Konverter (6h)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -906,6 +909,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -923,9 +929,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,52 +1318,52 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5"/>
-    <col min="6" max="6" width="38.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="9.5"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="256" width="9.5"/>
-    <col min="257" max="1025" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125"/>
+    <col min="6" max="6" width="38.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="38.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125"/>
+    <col min="10" max="10" width="28.453125" customWidth="1"/>
+    <col min="11" max="256" width="9.453125"/>
+    <col min="257" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19">
+    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1"/>
-    <row r="7" spans="2:10" ht="16" thickTop="1">
-      <c r="C7" s="41" t="s">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="42" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="43"/>
-    </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1">
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="97" thickTop="1">
+    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1410,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="48">
+    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1431,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="48">
+    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1456,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="48">
+    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1474,7 +1477,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="33" thickBot="1">
+    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1495,7 +1498,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1528,46 +1531,46 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5"/>
-    <col min="2" max="2" width="13.5"/>
-    <col min="3" max="3" width="12.1640625"/>
-    <col min="4" max="4" width="39.83203125"/>
-    <col min="5" max="5" width="10.5"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5"/>
-    <col min="8" max="8" width="39.83203125"/>
-    <col min="9" max="254" width="9.5"/>
-    <col min="255" max="1023" width="11.5"/>
+    <col min="1" max="1" width="9.453125"/>
+    <col min="2" max="2" width="13.453125"/>
+    <col min="3" max="3" width="12.1796875"/>
+    <col min="4" max="4" width="39.81640625"/>
+    <col min="5" max="5" width="10.453125"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125"/>
+    <col min="8" max="8" width="39.81640625"/>
+    <col min="9" max="254" width="9.453125"/>
+    <col min="255" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19">
+    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1"/>
-    <row r="7" spans="2:8" ht="16" thickTop="1">
-      <c r="C7" s="41" t="s">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="44" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="42" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="2:8" ht="16" thickBot="1">
+      <c r="H7" s="44"/>
+    </row>
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="49" thickTop="1">
+    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1606,7 +1609,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="32">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="64">
+    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="32">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1671,7 +1674,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="16">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1686,7 +1689,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="17" thickBot="1">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1724,65 +1727,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="39.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="39.5" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="39.5" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="39.5" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="40.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="39.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="39.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="39.453125" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="39.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="39.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="19">
+    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16" thickBot="1"/>
-    <row r="5" spans="2:16" ht="16" thickTop="1">
-      <c r="C5" s="46" t="s">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="46">
+      <c r="D5" s="42"/>
+      <c r="E5" s="47">
         <v>43430</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="45">
+      <c r="F5" s="42"/>
+      <c r="G5" s="46">
         <v>43431</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45">
+      <c r="H5" s="45"/>
+      <c r="I5" s="46">
         <v>43432</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45">
+      <c r="J5" s="45"/>
+      <c r="K5" s="46">
         <v>43433</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45">
+      <c r="L5" s="45"/>
+      <c r="M5" s="46">
         <v>43434</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="44"/>
-    </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1">
+      <c r="P5" s="45"/>
+    </row>
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="81" thickTop="1">
+    <row r="7" spans="2:16" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1863,7 +1866,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="80">
+    <row r="8" spans="2:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1894,13 +1897,13 @@
         <v>69</v>
       </c>
       <c r="M8" s="14"/>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="41" t="s">
         <v>70</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="2:16" ht="144">
+    <row r="9" spans="2:16" ht="145" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1935,7 +1938,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="2:16" ht="144">
+    <row r="10" spans="2:16" ht="145" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1964,7 +1967,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="2:16" ht="48">
+    <row r="11" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1994,12 +1997,16 @@
       <c r="L11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="38"/>
+      <c r="M11" s="28">
+        <v>6</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -2018,7 +2025,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="H14" s="40" t="s">
         <v>59</v>
       </c>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0DB4CCB7-0479-4E8D-ACCC-9518171761F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{28B2E1EC-B8BB-4621-9803-04240640DEE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>ILV</t>
   </si>
@@ -302,13 +302,6 @@
 - Auswertung fertig geschrieben (2h)</t>
   </si>
   <si>
-    <t>- Detailkonzept erstellt und beschrieben (0.5h)
-- Recherche Kettenförderer (1h)
-- Grafiken gesucht und angepasst (0.5h)
-- Detailkonzept Kettenförderer beschriebn (1h)
-- Kostenrecherche Kettenförderer (0.5h)</t>
-  </si>
-  <si>
     <t>-Nwa informiert &amp; grundgerüst erstellt(1.5h)
 - Tabelle bearbeitet(2h)
 - recherch minimalwasserPelton ( 2h)
@@ -331,6 +324,22 @@
   </si>
   <si>
     <t>-Rechere Generator, Getriebe, Gleichrichter, Konverter (6h)</t>
+  </si>
+  <si>
+    <t>- Detailkonzept erstellt und beschrieben (0.5h)
+- Recherche Kettenförderer (2h)
+- Grafiken gesucht und angepasst (0.5h)
+- Detailkonzept Kettenförderer beschriebn (1h)
+- Kostenrecherche Kettenförderer (1h)
+- Korrekturlesen (1h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Grobkonzept überarbeitet (3h)
+- Recherchiert (1h)
+- Detailkonzept erweitert(0.5h)
+- Beschrieben was muss noch gemacht werden und AP daraus geschlossen und verteilt (1h)
+- Kontrollsystem Komponente herausgesucht (1h)
+</t>
   </si>
 </sst>
 </file>
@@ -1725,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
-  <dimension ref="B3:P14"/>
+  <dimension ref="B3:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1747,15 +1756,19 @@
     <col min="14" max="14" width="39.453125" customWidth="1"/>
     <col min="15" max="15" width="13.453125" customWidth="1"/>
     <col min="16" max="16" width="39.453125" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" customWidth="1"/>
+    <col min="18" max="18" width="39.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" customWidth="1"/>
+    <col min="20" max="20" width="39.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="47" t="s">
         <v>37</v>
       </c>
@@ -1780,12 +1793,20 @@
         <v>43434</v>
       </c>
       <c r="N5" s="45"/>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="46">
+        <v>43435</v>
+      </c>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46">
+        <v>43436</v>
+      </c>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="45"/>
-    </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T5" s="45"/>
+    </row>
+    <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1828,8 +1849,20 @@
       <c r="P6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="131" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1859,14 +1892,24 @@
       <c r="L7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9">
+        <v>7</v>
+      </c>
       <c r="N7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="2:16" ht="101.5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="O7" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="2:20" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1888,22 +1931,26 @@
         <v>8.5</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="14">
         <v>8</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="14"/>
-      <c r="P8" s="37"/>
-    </row>
-    <row r="9" spans="2:16" ht="145" x14ac:dyDescent="0.35">
+      <c r="P8" s="41"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="37"/>
+    </row>
+    <row r="9" spans="2:20" ht="145" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1937,8 +1984,12 @@
       <c r="N9" s="37"/>
       <c r="O9" s="14"/>
       <c r="P9" s="37"/>
-    </row>
-    <row r="10" spans="2:16" ht="145" x14ac:dyDescent="0.35">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="37"/>
+    </row>
+    <row r="10" spans="2:20" ht="145" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1966,8 +2017,12 @@
       <c r="N10" s="37"/>
       <c r="O10" s="14"/>
       <c r="P10" s="37"/>
-    </row>
-    <row r="11" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="Q10" s="14"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="37"/>
+    </row>
+    <row r="11" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -2001,12 +2056,16 @@
         <v>6</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="28"/>
       <c r="P11" s="38"/>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="38"/>
+    </row>
+    <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -2024,8 +2083,12 @@
       <c r="N12" s="24"/>
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q12" s="19"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="24"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="H14" s="40" t="s">
         <v>59</v>
       </c>
@@ -2038,7 +2101,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="C5:D5"/>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00202920\Documents\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{28B2E1EC-B8BB-4621-9803-04240640DEE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FEC6AA53-AC11-4905-A394-50C4B5BFA8C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>ILV</t>
   </si>
@@ -340,6 +340,11 @@
 - Beschrieben was muss noch gemacht werden und AP daraus geschlossen und verteilt (1h)
 - Kontrollsystem Komponente herausgesucht (1h)
 </t>
+  </si>
+  <si>
+    <t>- Rechere &amp; Auswahl Generator, Gleichrichter, Konverter (2.5h)
+- Zeichnen Prinzipschema (3.5h)
+- Erstellen Funktionsbeschrieb (1h)</t>
   </si>
 </sst>
 </file>
@@ -1736,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2022,7 +2027,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="37"/>
     </row>
-    <row r="11" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -2058,8 +2063,12 @@
       <c r="N11" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="38"/>
+      <c r="O11" s="28">
+        <v>7</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>73</v>
+      </c>
       <c r="Q11" s="28"/>
       <c r="R11" s="38"/>
       <c r="S11" s="28"/>

--- a/ILV.xlsx
+++ b/ILV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\1.Semester\Projekt1\GitHub\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FEC6AA53-AC11-4905-A394-50C4B5BFA8C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50F4AA4-D945-3041-8852-70A9F5A0232F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="22420" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Pflichtenheft org." sheetId="2" r:id="rId2"/>
     <sheet name="Pflichtenheft techn." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -316,13 +316,6 @@
 - Risikoanalyse ( 1h)</t>
   </si>
   <si>
-    <t xml:space="preserve">-Recherche Wechselrichter/gleichrichter()
--  Förderungsanlage/Wechselrichter beschrieben()
-- 
--  
-- </t>
-  </si>
-  <si>
     <t>-Rechere Generator, Getriebe, Gleichrichter, Konverter (6h)</t>
   </si>
   <si>
@@ -345,6 +338,13 @@
     <t>- Rechere &amp; Auswahl Generator, Gleichrichter, Konverter (2.5h)
 - Zeichnen Prinzipschema (3.5h)
 - Erstellen Funktionsbeschrieb (1h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Recherche Wechselrichter/gleichrichter(4)
+-  Förderungsanlage/Wechselrichter beschrieben(1)
+- Recherche generatoren(2)
+-  
+- </t>
   </si>
 </sst>
 </file>
@@ -1332,34 +1332,34 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="38.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125"/>
-    <col min="6" max="6" width="38.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="38.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125"/>
-    <col min="10" max="10" width="28.453125" customWidth="1"/>
-    <col min="11" max="256" width="9.453125"/>
-    <col min="257" max="1025" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="9.5"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="256" width="9.5"/>
+    <col min="257" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="42" t="s">
         <v>2</v>
       </c>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="J7" s="44"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="97" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1545,32 +1545,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125"/>
-    <col min="2" max="2" width="13.453125"/>
-    <col min="3" max="3" width="12.1796875"/>
-    <col min="4" max="4" width="39.81640625"/>
-    <col min="5" max="5" width="10.453125"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.453125"/>
-    <col min="8" max="8" width="39.81640625"/>
-    <col min="9" max="254" width="9.453125"/>
-    <col min="255" max="1023" width="11.453125"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="13.5"/>
+    <col min="3" max="3" width="12.1640625"/>
+    <col min="4" max="4" width="39.83203125"/>
+    <col min="5" max="5" width="10.5"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5"/>
+    <col min="8" max="8" width="39.83203125"/>
+    <col min="9" max="254" width="9.5"/>
+    <col min="255" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C7" s="42" t="s">
         <v>15</v>
       </c>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1741,39 +1741,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C6BD5-5ABE-4D8C-801F-E911E9F1C8D7}">
   <dimension ref="B3:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="39.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="39.453125" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="39.453125" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="39.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
-    <col min="16" max="16" width="39.453125" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" customWidth="1"/>
-    <col min="18" max="18" width="39.453125" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" customWidth="1"/>
-    <col min="20" max="20" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="39.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="39.5" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="39.5" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="39.5" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="39.5" customWidth="1"/>
+    <col min="19" max="19" width="13.5" customWidth="1"/>
+    <col min="20" max="20" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C5" s="47" t="s">
         <v>37</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="T5" s="45"/>
     </row>
-    <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="131" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" ht="113" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1901,20 +1901,20 @@
         <v>7</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="9">
         <v>6.5</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
       <c r="S7" s="9"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="2:20" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" ht="96" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1944,9 +1944,11 @@
       <c r="L8" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="14">
+        <v>7</v>
+      </c>
       <c r="N8" s="41" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="41"/>
@@ -1955,7 +1957,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="37"/>
     </row>
-    <row r="9" spans="2:20" ht="145" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" ht="144" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1994,7 +1996,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="37"/>
     </row>
-    <row r="10" spans="2:20" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" ht="144" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -2027,7 +2029,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="37"/>
     </row>
-    <row r="11" spans="2:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -2061,20 +2063,20 @@
         <v>6</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O11" s="28">
         <v>7</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="28"/>
       <c r="R11" s="38"/>
       <c r="S11" s="28"/>
       <c r="T11" s="38"/>
     </row>
-    <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -2097,7 +2099,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="24"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="H14" s="40" t="s">
         <v>59</v>
       </c>
